--- a/additional_data/3.Delay_Compensation_claim_processing_last5years.xlsx
+++ b/additional_data/3.Delay_Compensation_claim_processing_last5years.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsila\Dexian_Bootcamp\Final_Capstone_Project\EDA\additional data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsila\Dexian_Bootcamp\Final_Capstone_Project\EDA\additional_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B688F4-28B1-4CF6-8B4F-03A19BF25C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72EA22A-2D5D-42EF-83F5-85BDE773CB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,19 +69,7 @@
     <t>West Midlands Trains</t>
   </si>
   <si>
-    <t>Volume of claims received within period 2019 - 2023</t>
-  </si>
-  <si>
-    <t>Volume of claims closed within period 2019 - 2023</t>
-  </si>
-  <si>
-    <t>Volume of claims approved within period 2019 - 2023</t>
-  </si>
-  <si>
     <t>Great Britain</t>
-  </si>
-  <si>
-    <t>Percentage closed within 20 working days 2019 - 2023 (%)</t>
   </si>
   <si>
     <t>Avanti West Coast</t>
@@ -135,6 +123,18 @@
   <si>
     <t xml:space="preserve">TransPennine Express
 </t>
+  </si>
+  <si>
+    <t>Percentage_closed_2019_2023(%)</t>
+  </si>
+  <si>
+    <t>Claims_received_2019_2023</t>
+  </si>
+  <si>
+    <t>Claims_closed_2019_2023</t>
+  </si>
+  <si>
+    <t>Claims_ approved_2019_2023</t>
   </si>
 </sst>
 </file>
@@ -526,12 +526,12 @@
   <dimension ref="A1:O16383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" style="8" customWidth="1"/>
     <col min="2" max="2" width="27" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" style="4" customWidth="1"/>
@@ -546,21 +546,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5">
         <v>7136243.857493504</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5">
         <v>79823.856260574554</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5">
         <v>409352.87631408009</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="7" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <v>2248658.8089447422</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="8" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>107835</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5">
         <v>180795.26635901985</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="11" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5">
         <v>6042234.7127485871</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="12" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5">
         <v>4052956.9747751146</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="14" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5">
         <v>202211.39210952423</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5">
         <v>128510</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="19" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5">
         <v>2998596.8369999817</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5">
         <v>5930725</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="23" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23" s="5">
         <v>888972.7790842941</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="24" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24" s="5">
         <v>2377322.6596243111</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B26" s="5">
         <v>64123634.900259398</v>
